--- a/Admin/Ara Folder/Timesheet_9-20_9-26.xlsx
+++ b/Admin/Ara Folder/Timesheet_9-20_9-26.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borde\Desktop\SeniorDesignProject\Admin\Ara Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borde\Senior Design Project\Admin\Ara Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5BB536-84A9-4ABB-AA0D-402BB82AB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9ABCAB-DF81-4A3F-BF08-753F07B26FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Sponsor Meeting</t>
   </si>
   <si>
-    <t>Task aaaaa</t>
-  </si>
-  <si>
     <t>Task bbbbb</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>LoopSketch</t>
+  </si>
+  <si>
+    <t>TA Meeting</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -762,14 +762,16 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -794,24 +796,26 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -828,7 +832,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -845,7 +849,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -862,7 +866,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -879,7 +883,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -896,7 +900,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" ref="B16:I16" si="1">SUM(B6:B15)</f>
@@ -908,7 +912,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -928,43 +932,43 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
